--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T15:55:29-06:00</t>
+    <t>2023-01-04T18:59:45-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="374">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-beta</t>
+    <t>0.1.1-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-04T18:59:45-06:00</t>
+    <t>2023-01-05T09:18:04-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
     <t>Details and position information for a physical place</t>
   </si>
   <si>
-    <t>\-</t>
+    <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -1710,9 +1710,7 @@
       <c r="M2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="N2" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
         <v>76</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="375">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1-beta</t>
+    <t>0.1.2-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-05T09:18:04-06:00</t>
+    <t>2023-01-10T07:11:45-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -86,7 +86,7 @@
   <si>
     <t>A profile on the Location resource for MHV PHR exposing Location using FHIR API.
 - based on US-Core for Location
-- hospitalLocationTO, SiteTO</t>
+Mapping to [VDIF HospitalLocationTO](StructureDefinition-VA.MHV.PHR.location-mappings.html#mappings-for-vdif-to-mhv-phr-hospitallocationto).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Details and position information for a physical place</t>
@@ -1702,13 +1706,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1774,21 +1778,21 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1799,7 +1803,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1808,19 +1812,19 @@
         <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1870,13 +1874,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1896,10 +1900,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1910,7 +1914,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>76</v>
@@ -1919,16 +1923,16 @@
         <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1979,19 +1983,19 @@
         <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -2005,10 +2009,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2019,28 +2023,28 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2090,19 +2094,19 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -2116,10 +2120,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2130,7 +2134,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -2142,16 +2146,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2177,13 +2181,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2201,19 +2205,19 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2227,21 +2231,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2253,16 +2257,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2312,22 +2316,22 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>76</v>
@@ -2338,14 +2342,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2364,16 +2368,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2423,7 +2427,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2438,7 +2442,7 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -2449,14 +2453,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2475,16 +2479,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2534,7 +2538,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2546,10 +2550,10 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -2560,14 +2564,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2580,25 +2584,25 @@
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -2647,7 +2651,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2659,10 +2663,10 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>76</v>
@@ -2673,10 +2677,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2696,20 +2700,20 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2758,7 +2762,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2770,24 +2774,24 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2798,25 +2802,25 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2843,13 +2847,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2867,36 +2871,36 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2907,7 +2911,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2916,16 +2920,16 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2952,13 +2956,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -2976,25 +2980,25 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -3002,10 +3006,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3013,31 +3017,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3087,36 +3091,36 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3139,19 +3143,19 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3200,7 +3204,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3212,24 +3216,24 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3240,7 +3244,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3249,20 +3253,20 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3311,22 +3315,22 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3337,10 +3341,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3351,7 +3355,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3360,22 +3364,22 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3400,13 +3404,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3424,25 +3428,25 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3450,10 +3454,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3473,16 +3477,16 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3509,13 +3513,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="Z18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3533,7 +3537,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3545,13 +3549,13 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3559,10 +3563,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3576,7 +3580,7 @@
         <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>76</v>
@@ -3585,13 +3589,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3642,7 +3646,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3654,24 +3658,24 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3682,10 +3686,10 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>76</v>
@@ -3694,19 +3698,19 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3755,22 +3759,22 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3781,10 +3785,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3795,7 +3799,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3807,13 +3811,13 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3864,13 +3868,13 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
@@ -3879,7 +3883,7 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3890,14 +3894,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3916,16 +3920,16 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3963,19 +3967,19 @@
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3987,10 +3991,10 @@
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4001,10 +4005,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4015,31 +4019,31 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4052,7 +4056,7 @@
         <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>76</v>
@@ -4064,13 +4068,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4088,22 +4092,22 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4114,10 +4118,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4128,7 +4132,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4137,19 +4141,19 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4163,7 +4167,7 @@
         <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4175,13 +4179,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4199,22 +4203,22 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4225,10 +4229,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4239,7 +4243,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4248,22 +4252,22 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4276,7 +4280,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4312,22 +4316,22 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4338,10 +4342,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4355,22 +4359,22 @@
         <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4385,7 +4389,7 @@
         <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>76</v>
@@ -4421,7 +4425,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4433,10 +4437,10 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4447,39 +4451,39 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4494,7 +4498,7 @@
         <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>76</v>
@@ -4530,22 +4534,22 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4556,21 +4560,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4579,19 +4583,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4605,7 +4609,7 @@
         <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>76</v>
@@ -4641,22 +4645,22 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4667,39 +4671,39 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4726,13 +4730,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4750,22 +4754,22 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4776,39 +4780,39 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4823,7 +4827,7 @@
         <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>76</v>
@@ -4859,22 +4863,22 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4885,10 +4889,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4899,7 +4903,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4908,19 +4912,19 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4970,22 +4974,22 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4996,10 +5000,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5010,7 +5014,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5019,20 +5023,20 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5045,7 +5049,7 @@
         <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>76</v>
@@ -5081,22 +5085,22 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5107,10 +5111,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5121,7 +5125,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5130,20 +5134,20 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5168,13 +5172,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5192,25 +5196,25 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5218,10 +5222,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5232,7 +5236,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5244,17 +5248,17 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5303,22 +5307,22 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5329,10 +5333,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5343,7 +5347,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5355,13 +5359,13 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5412,13 +5416,13 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
@@ -5427,7 +5431,7 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5438,14 +5442,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5464,16 +5468,16 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5523,7 +5527,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5535,10 +5539,10 @@
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5549,14 +5553,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5569,25 +5573,25 @@
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5636,7 +5640,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5648,10 +5652,10 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5662,10 +5666,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5673,10 +5677,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5688,13 +5692,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5745,22 +5749,22 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5771,10 +5775,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5782,10 +5786,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5797,13 +5801,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5854,22 +5858,22 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5880,10 +5884,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5894,7 +5898,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -5906,13 +5910,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5963,22 +5967,22 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5989,10 +5993,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6003,31 +6007,31 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6076,22 +6080,22 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6102,10 +6106,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6116,7 +6120,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6128,17 +6132,17 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6187,22 +6191,22 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6213,10 +6217,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6239,16 +6243,16 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6298,7 +6302,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6310,10 +6314,10 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6324,10 +6328,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6338,7 +6342,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6350,13 +6354,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6407,13 +6411,13 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
@@ -6422,7 +6426,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6433,14 +6437,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6459,16 +6463,16 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6518,7 +6522,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6530,10 +6534,10 @@
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6544,14 +6548,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6564,25 +6568,25 @@
         <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6631,7 +6635,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6643,10 +6647,10 @@
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6657,10 +6661,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6683,13 +6687,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6716,13 +6720,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -6740,7 +6744,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6752,10 +6756,10 @@
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6766,10 +6770,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6780,7 +6784,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6792,13 +6796,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6849,22 +6853,22 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6875,10 +6879,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6889,7 +6893,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -6901,13 +6905,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6958,22 +6962,22 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -6984,10 +6988,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6998,7 +7002,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7010,13 +7014,13 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7067,22 +7071,22 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7093,10 +7097,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7107,7 +7111,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7119,13 +7123,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7176,22 +7180,22 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7202,10 +7206,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7228,17 +7232,17 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7287,7 +7291,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7299,10 +7303,10 @@
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T07:11:45-06:00</t>
+    <t>2023-01-10T08:15:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="375">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2-beta</t>
+    <t>0.1.3-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T08:15:50-06:00</t>
+    <t>2023-01-11T06:10:13-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -264,7 +264,7 @@
     <t>Details and position information for a physical place</t>
   </si>
   <si>
-    <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.</t>
+    <t>\-</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -1714,7 +1714,9 @@
       <c r="M2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
         <v>76</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T06:10:13-06:00</t>
+    <t>2023-02-02T16:50:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3-beta</t>
+    <t>0.1.4-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T16:50:30-06:00</t>
+    <t>2023-02-03T09:54:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T09:54:41-06:00</t>
+    <t>2023-02-21T15:24:44-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4-beta</t>
+    <t>0.1.5-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T15:24:44-06:00</t>
+    <t>2023-02-23T08:24:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:24:10-06:00</t>
+    <t>2023-02-23T08:47:22-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:47:22-06:00</t>
+    <t>2023-03-05T12:38:40-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="433">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5-beta</t>
+    <t>0.1.6-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T12:38:40-06:00</t>
+    <t>2023-03-23T11:34:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -476,6 +476,13 @@
     <t>Organization label locations in registries, need to keep track of those.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:use}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>.id</t>
   </si>
   <si>
@@ -485,6 +492,221 @@
     <t>HospitalLocationTO.ids</t>
   </si>
   <si>
+    <t>Location.identifier:TOid</t>
+  </si>
+  <si>
+    <t>TOid</t>
+  </si>
+  <si>
+    <t>Location.identifier:TOid.id</t>
+  </si>
+  <si>
+    <t>Location.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Location.identifier:TOid.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier:TOid.use</t>
+  </si>
+  <si>
+    <t>Location.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>usual</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Location.identifier:TOid.type</t>
+  </si>
+  <si>
+    <t>Location.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Location.identifier:TOid.system</t>
+  </si>
+  <si>
+    <t>Location.identifier.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.4.349</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Location.identifier:TOid.value</t>
+  </si>
+  <si>
+    <t>Location.identifier.value</t>
+  </si>
+  <si>
+    <t>`HospitalLocationTO` | `.` | {HospitalLocationTO.id}</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Location.identifier:TOid.period</t>
+  </si>
+  <si>
+    <t>Location.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Location.identifier:TOid.assigner</t>
+  </si>
+  <si>
+    <t>Location.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>Location.status</t>
   </si>
   <si>
@@ -492,9 +714,6 @@
   </si>
   <si>
     <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>Indicates whether the location is still in use.</t>
@@ -531,14 +750,7 @@
     <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Location.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Name of the location as used by humans</t>
@@ -617,17 +829,10 @@
     <t>Location.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Type of function performed</t>
   </si>
   <si>
     <t>Indicates the type of function performed at the location.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
@@ -680,32 +885,7 @@
     <t>Location.address.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Location.address.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Location.address.use</t>
@@ -917,10 +1097,6 @@
   </si>
   <si>
     <t>Location.address.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Time period when address was/is in use</t>
@@ -1510,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1538,12 +1714,12 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.75390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.6484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="66.8203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -1554,7 +1730,7 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="66.3671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="30.43359375" customWidth="true" bestFit="true"/>
   </cols>
@@ -2690,7 +2866,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -2752,16 +2928,14 @@
         <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>142</v>
@@ -2779,53 +2953,57 @@
         <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2849,13 +3027,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2873,13 +3051,13 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
@@ -2888,21 +3066,21 @@
         <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2922,16 +3100,16 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2958,13 +3136,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -2994,13 +3172,13 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -3008,42 +3186,42 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3081,16 +3259,16 @@
         <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>166</v>
@@ -3099,30 +3277,30 @@
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3130,34 +3308,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3167,7 +3345,7 @@
         <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>76</v>
@@ -3182,13 +3360,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3206,13 +3384,13 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
@@ -3221,13 +3399,13 @@
         <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" hidden="true">
@@ -3235,7 +3413,7 @@
         <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3258,17 +3436,19 @@
         <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3293,13 +3473,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3317,7 +3497,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3332,7 +3512,7 @@
         <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3343,10 +3523,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3369,19 +3549,19 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3394,7 +3574,7 @@
         <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>76</v>
@@ -3406,13 +3586,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3430,7 +3610,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3445,10 +3625,10 @@
         <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3456,10 +3636,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3470,7 +3650,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3482,15 +3662,17 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3503,7 +3685,7 @@
         <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>76</v>
@@ -3515,13 +3697,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3539,13 +3721,13 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
@@ -3554,10 +3736,10 @@
         <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3565,10 +3747,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3579,25 +3761,25 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3648,13 +3830,13 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
@@ -3663,21 +3845,21 @@
         <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3691,29 +3873,27 @@
         <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3761,7 +3941,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3776,7 +3956,7 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3787,10 +3967,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3804,22 +3984,22 @@
         <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3846,13 +4026,13 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -3870,7 +4050,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3882,35 +4062,35 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3919,20 +4099,18 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3957,49 +4135,49 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4007,10 +4185,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4018,35 +4196,33 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4058,7 +4234,7 @@
         <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>76</v>
@@ -4070,13 +4246,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4094,7 +4270,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4109,21 +4285,21 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4134,7 +4310,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4143,21 +4319,23 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4169,7 +4347,7 @@
         <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4181,13 +4359,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4205,13 +4383,13 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
@@ -4220,21 +4398,21 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4257,19 +4435,17 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4282,7 +4458,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4318,7 +4494,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4333,7 +4509,7 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4344,10 +4520,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4358,10 +4534,10 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>76</v>
@@ -4370,16 +4546,20 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4391,7 +4571,7 @@
         <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>76</v>
@@ -4403,13 +4583,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4427,13 +4607,13 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
@@ -4442,10 +4622,10 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4453,24 +4633,24 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>76</v>
@@ -4479,13 +4659,13 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4500,7 +4680,7 @@
         <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>76</v>
@@ -4512,13 +4692,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4536,13 +4716,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -4551,10 +4731,10 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4562,43 +4742,41 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>167</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4611,49 +4789,49 @@
         <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="U28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4662,25 +4840,25 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4696,19 +4874,23 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4732,13 +4914,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4756,7 +4938,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4771,7 +4953,7 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4782,14 +4964,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4799,22 +4981,22 @@
         <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>280</v>
+        <v>158</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4829,7 +5011,7 @@
         <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>76</v>
@@ -4865,7 +5047,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4877,10 +5059,10 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4891,21 +5073,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4914,19 +5096,19 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>286</v>
+        <v>163</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>287</v>
+        <v>134</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4964,34 +5146,34 @@
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>288</v>
+        <v>166</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5002,10 +5184,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5022,23 +5204,25 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>291</v>
+        <v>105</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5051,7 +5235,7 @@
         <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>76</v>
@@ -5063,13 +5247,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5087,7 +5271,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5102,7 +5286,7 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5113,10 +5297,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5139,18 +5323,18 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5162,7 +5346,7 @@
         <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>76</v>
@@ -5174,13 +5358,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>302</v>
+        <v>174</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5213,10 +5397,10 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5224,10 +5408,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5247,20 +5431,22 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>307</v>
+        <v>156</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5273,7 +5459,7 @@
         <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>76</v>
@@ -5309,7 +5495,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5324,7 +5510,7 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5335,10 +5521,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5349,25 +5535,25 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5382,7 +5568,7 @@
         <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>76</v>
@@ -5418,22 +5604,22 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>215</v>
+        <v>311</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>165</v>
+        <v>312</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5451,36 +5637,34 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>130</v>
+        <v>314</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5493,7 +5677,7 @@
         <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>76</v>
@@ -5529,22 +5713,22 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>221</v>
+        <v>318</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>165</v>
+        <v>319</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5555,46 +5739,44 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5606,7 +5788,7 @@
         <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>76</v>
@@ -5642,22 +5824,22 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>128</v>
+        <v>327</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5668,39 +5850,39 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5727,13 +5909,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -5751,10 +5933,10 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>85</v>
@@ -5766,7 +5948,7 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5777,39 +5959,39 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>320</v>
+        <v>156</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5824,7 +6006,7 @@
         <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>76</v>
@@ -5860,10 +6042,10 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>85</v>
@@ -5875,7 +6057,7 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5886,10 +6068,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5909,18 +6091,20 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>320</v>
+        <v>156</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5969,7 +6153,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5984,7 +6168,7 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5995,10 +6179,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6012,7 +6196,7 @@
         <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>76</v>
@@ -6021,19 +6205,17 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>331</v>
+        <v>209</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6046,7 +6228,7 @@
         <v>76</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>76</v>
@@ -6082,7 +6264,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6097,7 +6279,7 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6108,10 +6290,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6131,20 +6313,20 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6169,13 +6351,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6193,7 +6375,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6208,10 +6390,10 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6219,10 +6401,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6233,7 +6415,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6245,18 +6427,18 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6304,13 +6486,13 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
@@ -6319,7 +6501,7 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6330,10 +6512,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6356,13 +6538,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6413,7 +6595,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6428,7 +6610,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6439,10 +6621,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6471,7 +6653,7 @@
         <v>132</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>134</v>
@@ -6524,7 +6706,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6539,7 +6721,7 @@
         <v>136</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6550,14 +6732,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6579,10 +6761,10 @@
         <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>134</v>
@@ -6637,7 +6819,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>318</v>
+        <v>376</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6663,10 +6845,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6674,10 +6856,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6689,13 +6871,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>105</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6722,13 +6904,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>354</v>
+        <v>76</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>355</v>
+        <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -6746,13 +6928,13 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
@@ -6761,7 +6943,7 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6772,10 +6954,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6783,7 +6965,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>85</v>
@@ -6798,13 +6980,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6855,10 +7037,10 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>85</v>
@@ -6870,7 +7052,7 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6881,10 +7063,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6907,13 +7089,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6964,7 +7146,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6979,7 +7161,7 @@
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -6990,10 +7172,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7007,25 +7189,29 @@
         <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7073,7 +7259,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7088,7 +7274,7 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7099,10 +7285,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7125,16 +7311,18 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>167</v>
+        <v>396</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7182,7 +7370,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7197,7 +7385,7 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>165</v>
+        <v>400</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7208,10 +7396,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7234,18 +7422,18 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7293,7 +7481,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7308,17 +7496,1006 @@
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>165</v>
+        <v>405</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM52">
+  <autoFilter ref="A1:AM61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7328,7 +8505,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6-beta</t>
+    <t>0.1.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:34:13-05:00</t>
+    <t>2023-03-29T16:54:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="434">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T16:54:48-05:00</t>
+    <t>2023-03-30T12:22:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -631,6 +631,10 @@
   </si>
   <si>
     <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+TOid-startswithoid:ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr} {value.startsWith('urn:oid:2.16.840.1.113883.4.349.4.')}</t>
   </si>
   <si>
     <t>II.root or Role.id.root</t>
@@ -3622,10 +3626,10 @@
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3636,10 +3640,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3665,13 +3669,13 @@
         <v>156</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3685,7 +3689,7 @@
         <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>76</v>
@@ -3721,7 +3725,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3736,7 +3740,7 @@
         <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3747,10 +3751,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3773,13 +3777,13 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3830,7 +3834,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3845,7 +3849,7 @@
         <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3856,10 +3860,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3882,16 +3886,16 @@
         <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3941,7 +3945,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3956,7 +3960,7 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3967,10 +3971,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3996,10 +4000,10 @@
         <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4029,10 +4033,10 @@
         <v>174</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -4050,7 +4054,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4065,21 +4069,21 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4102,13 +4106,13 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4138,10 +4142,10 @@
         <v>109</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4159,7 +4163,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4177,7 +4181,7 @@
         <v>160</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4185,10 +4189,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4214,13 +4218,13 @@
         <v>156</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4270,7 +4274,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4285,21 +4289,21 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4325,16 +4329,16 @@
         <v>156</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4383,7 +4387,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4398,21 +4402,21 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4438,14 +4442,14 @@
         <v>156</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4494,7 +4498,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4509,7 +4513,7 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4520,10 +4524,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4549,16 +4553,16 @@
         <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4586,10 +4590,10 @@
         <v>174</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4607,7 +4611,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4622,10 +4626,10 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4633,10 +4637,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4662,10 +4666,10 @@
         <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4695,10 +4699,10 @@
         <v>186</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4716,7 +4720,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4731,10 +4735,10 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4742,10 +4746,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4768,13 +4772,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4825,7 +4829,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4840,21 +4844,21 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4877,19 +4881,19 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4938,7 +4942,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4953,7 +4957,7 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4964,10 +4968,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5073,10 +5077,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5184,10 +5188,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5213,16 +5217,16 @@
         <v>105</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5235,7 +5239,7 @@
         <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>76</v>
@@ -5250,10 +5254,10 @@
         <v>174</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5271,7 +5275,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5286,7 +5290,7 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5297,10 +5301,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5326,13 +5330,13 @@
         <v>105</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5346,7 +5350,7 @@
         <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>76</v>
@@ -5361,10 +5365,10 @@
         <v>174</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5382,7 +5386,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5397,7 +5401,7 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5408,10 +5412,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5437,16 +5441,16 @@
         <v>156</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5459,7 +5463,7 @@
         <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>76</v>
@@ -5495,7 +5499,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5510,7 +5514,7 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5521,10 +5525,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5550,10 +5554,10 @@
         <v>156</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5568,7 +5572,7 @@
         <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>76</v>
@@ -5604,7 +5608,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5619,7 +5623,7 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5630,14 +5634,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5659,10 +5663,10 @@
         <v>156</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5677,7 +5681,7 @@
         <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>76</v>
@@ -5713,7 +5717,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5728,7 +5732,7 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5739,14 +5743,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5768,13 +5772,13 @@
         <v>156</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5788,7 +5792,7 @@
         <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>76</v>
@@ -5824,7 +5828,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5839,7 +5843,7 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5850,14 +5854,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5879,10 +5883,10 @@
         <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5912,10 +5916,10 @@
         <v>186</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -5933,7 +5937,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5948,7 +5952,7 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5959,14 +5963,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5988,10 +5992,10 @@
         <v>156</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6006,7 +6010,7 @@
         <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>76</v>
@@ -6042,7 +6046,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6057,7 +6061,7 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6068,10 +6072,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6097,13 +6101,13 @@
         <v>156</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6153,7 +6157,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6168,7 +6172,7 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6179,10 +6183,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6205,17 +6209,17 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6228,7 +6232,7 @@
         <v>76</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>76</v>
@@ -6264,7 +6268,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6279,7 +6283,7 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6290,10 +6294,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6319,14 +6323,14 @@
         <v>181</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6351,13 +6355,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6375,7 +6379,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6390,10 +6394,10 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6401,10 +6405,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6427,17 +6431,17 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6486,7 +6490,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6501,7 +6505,7 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6512,10 +6516,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6621,10 +6625,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6732,14 +6736,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6761,10 +6765,10 @@
         <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>134</v>
@@ -6819,7 +6823,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6845,10 +6849,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6871,13 +6875,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6928,7 +6932,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>85</v>
@@ -6943,7 +6947,7 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6954,10 +6958,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6980,13 +6984,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7037,7 +7041,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>85</v>
@@ -7052,7 +7056,7 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7063,10 +7067,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7089,13 +7093,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7146,7 +7150,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7161,7 +7165,7 @@
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7172,10 +7176,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7198,19 +7202,19 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7259,7 +7263,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7274,7 +7278,7 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7285,10 +7289,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7311,17 +7315,17 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7370,7 +7374,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7385,7 +7389,7 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7396,10 +7400,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7422,16 +7426,16 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7481,7 +7485,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7496,7 +7500,7 @@
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7507,10 +7511,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7616,10 +7620,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7727,14 +7731,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7756,10 +7760,10 @@
         <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>134</v>
@@ -7814,7 +7818,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7840,10 +7844,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7869,10 +7873,10 @@
         <v>105</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7902,10 +7906,10 @@
         <v>174</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -7923,7 +7927,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7938,7 +7942,7 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -7949,10 +7953,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7975,13 +7979,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8032,7 +8036,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8047,7 +8051,7 @@
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -8058,10 +8062,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8084,13 +8088,13 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8141,7 +8145,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8156,7 +8160,7 @@
         <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -8167,10 +8171,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8193,13 +8197,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8250,7 +8254,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8265,7 +8269,7 @@
         <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8276,10 +8280,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8305,10 +8309,10 @@
         <v>156</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8359,7 +8363,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8385,10 +8389,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8411,17 +8415,17 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8470,7 +8474,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T12:22:18-05:00</t>
+    <t>2023-03-31T07:50:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T07:50:38-05:00</t>
+    <t>2023-04-11T08:45:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8-beta</t>
+    <t>0.1.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T10:49:54-05:00</t>
+    <t>2023-04-14T09:56:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9-beta</t>
+    <t>0.1.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:56:36-05:00</t>
+    <t>2023-04-17T18:54:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="395">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.15-beta</t>
+    <t>0.1.16-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-07T11:47:17-05:00</t>
+    <t>2023-06-13T11:38:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,123 +129,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: VDIF to MHV-PHR</t>
   </si>
   <si>
     <t/>
@@ -1484,10 +1367,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1690,7 +1573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AM60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1701,13 +1584,12 @@
   <cols>
     <col min="1" max="1" width="42.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.3984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="5.2265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="72.82421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1715,6791 +1597,6672 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="66.8203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.12890625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="30.43359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>230</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>236</v>
+        <v>37</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>37</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>264</v>
+        <v>37</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>265</v>
+        <v>37</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>272</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>274</v>
+        <v>117</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>120</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>279</v>
+        <v>121</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>298</v>
+        <v>37</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>326</v>
+        <v>37</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>333</v>
+        <v>37</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>334</v>
+        <v>37</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>338</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>354</v>
+        <v>37</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>181</v>
+        <v>327</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>361</v>
+        <v>37</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>362</v>
+        <v>37</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>363</v>
+        <v>37</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>366</v>
+        <v>117</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>118</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
+        <v>119</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>369</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>120</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>370</v>
+        <v>121</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>130</v>
+        <v>335</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>132</v>
+        <v>336</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>163</v>
+        <v>337</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="P45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>166</v>
+        <v>338</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>374</v>
+        <v>37</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>128</v>
+        <v>343</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>397</v>
+        <v>327</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>366</v>
+        <v>117</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>403</v>
+        <v>118</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>402</v>
+        <v>120</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>406</v>
+        <v>121</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>130</v>
+        <v>335</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>132</v>
+        <v>336</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>163</v>
+        <v>337</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="P54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>166</v>
+        <v>338</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>374</v>
+        <v>37</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>128</v>
+        <v>367</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>105</v>
+        <v>377</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>413</v>
+        <v>37</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>414</v>
+        <v>37</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>420</v>
+        <v>117</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>406</v>
+        <v>121</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>156</v>
+        <v>391</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM61">
+  <autoFilter ref="A1:AM60">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8509,7 +8272,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -86,7 +86,10 @@
   <si>
     <t>A profile on the Location resource for MHV PHR exposing Location using FHIR API.
 - based on US-Core for Location
-Mapping to [VDIF HospitalLocationTO](StructureDefinition-VA.MHV.PHR.location-mappings.html#mappings-for-vdif-to-mhv-phr-hospitallocationto).</t>
+- `identifier`
+  - system = urn:oid:2.16.840.1.113883.4.349
+- `name` is the name as known
+NOT USING Mapping to [VDIF HospitalLocationTO](StructureDefinition-VA.MHV.PHR.location-mappings.html#mappings-for-vdif-to-mhv-phr-hospitallocationto).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -3748,7 +3751,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>47</v>
@@ -3857,7 +3860,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>37</v>
@@ -4077,7 +4080,7 @@
         <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>37</v>
@@ -4190,7 +4193,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>37</v>
@@ -4301,7 +4304,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>37</v>
@@ -4414,7 +4417,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>37</v>
@@ -4523,7 +4526,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>47</v>
@@ -4632,7 +4635,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>47</v>
@@ -6071,7 +6074,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>37</v>
@@ -6182,7 +6185,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>37</v>
@@ -6953,7 +6956,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>47</v>
@@ -7066,7 +7069,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7177,7 +7180,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -8057,7 +8060,7 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>37</v>
@@ -8166,7 +8169,7 @@
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.location</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.location</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>
@@ -89,7 +89,7 @@
 - `identifier`
   - system = urn:oid:2.16.840.1.113883.4.349
 - `name` is the name as known
-NOT USING Mapping to [VDIF HospitalLocationTO](StructureDefinition-VA.MHV.PHR.location-mappings.html#mappings-for-vdif-to-mhv-phr-hospitallocationto).</t>
+NOT USING Mapping to [VIA HospitalLocationTO](StructureDefinition-VA.MHV.PHR.location-mappings.html#mappings-for-via-to-mhv-phr-hospitallocationto).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="396">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -89,6 +89,7 @@
 - `identifier`
   - system = urn:oid:2.16.840.1.113883.4.349
 - `name` is the name as known
+- always a contained resource, so not exposed RESTfully
 NOT USING Mapping to [VIA HospitalLocationTO](StructureDefinition-VA.MHV.PHR.location-mappings.html#mappings-for-via-to-mhv-phr-hospitallocationto).</t>
   </si>
   <si>
@@ -153,6 +154,10 @@
     <t>\-</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>.Role[classCode=SDLC]</t>
   </si>
   <si>
@@ -501,7 +506,7 @@
     <t>Location.identifier.system</t>
   </si>
   <si>
-    <t>urn:oid:2.16.840.1.113883.4.349</t>
+    <t>urn:oid:2.16.840.1.113883.4.349.4.{stationNbr}</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -1723,24 +1728,24 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1751,7 +1756,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -1760,19 +1765,19 @@
         <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1822,13 +1827,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -1848,10 +1853,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1862,7 +1867,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>37</v>
@@ -1871,16 +1876,16 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1931,19 +1936,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -1957,10 +1962,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1971,28 +1976,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2042,19 +2047,19 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -2068,10 +2073,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2082,7 +2087,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -2094,16 +2099,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2129,13 +2134,13 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>37</v>
@@ -2153,19 +2158,19 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2179,21 +2184,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>37</v>
@@ -2205,16 +2210,16 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2264,22 +2269,22 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>37</v>
@@ -2290,14 +2295,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2316,16 +2321,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2375,7 +2380,7 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -2390,7 +2395,7 @@
         <v>37</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>37</v>
@@ -2401,14 +2406,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2427,16 +2432,16 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2486,7 +2491,7 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -2498,10 +2503,10 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>37</v>
@@ -2512,14 +2517,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2532,25 +2537,25 @@
         <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>37</v>
@@ -2599,7 +2604,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2611,10 +2616,10 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>37</v>
@@ -2625,10 +2630,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2636,7 +2641,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -2648,20 +2653,20 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>37</v>
@@ -2698,17 +2703,17 @@
         <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2720,37 +2725,37 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>37</v>
@@ -2759,20 +2764,20 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>37</v>
@@ -2821,7 +2826,7 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -2833,13 +2838,13 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>37</v>
@@ -2847,10 +2852,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2861,7 +2866,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>37</v>
@@ -2873,13 +2878,13 @@
         <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2930,13 +2935,13 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>37</v>
@@ -2945,7 +2950,7 @@
         <v>37</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>37</v>
@@ -2956,14 +2961,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2982,16 +2987,16 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3029,19 +3034,19 @@
         <v>37</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
@@ -3053,10 +3058,10 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>37</v>
@@ -3067,10 +3072,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3078,34 +3083,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>37</v>
@@ -3115,7 +3120,7 @@
         <v>37</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>37</v>
@@ -3130,13 +3135,13 @@
         <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>37</v>
@@ -3154,22 +3159,22 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>37</v>
@@ -3180,10 +3185,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3194,7 +3199,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>37</v>
@@ -3203,22 +3208,22 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -3243,13 +3248,13 @@
         <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>37</v>
@@ -3267,22 +3272,22 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>37</v>
@@ -3293,10 +3298,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3307,7 +3312,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>37</v>
@@ -3316,22 +3321,22 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
@@ -3344,7 +3349,7 @@
         <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>37</v>
@@ -3380,22 +3385,22 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>37</v>
@@ -3406,10 +3411,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3420,7 +3425,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>37</v>
@@ -3429,19 +3434,19 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3455,7 +3460,7 @@
         <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>37</v>
@@ -3491,22 +3496,22 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>37</v>
@@ -3517,10 +3522,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3531,7 +3536,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -3540,16 +3545,16 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3600,22 +3605,22 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>37</v>
@@ -3626,10 +3631,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3640,7 +3645,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
@@ -3649,19 +3654,19 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3711,22 +3716,22 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>37</v>
@@ -3737,10 +3742,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3754,22 +3759,22 @@
         <v>38</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3796,13 +3801,13 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>37</v>
@@ -3820,36 +3825,36 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3869,16 +3874,16 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3905,13 +3910,13 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -3929,25 +3934,25 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>37</v>
@@ -3955,10 +3960,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3966,31 +3971,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4040,36 +4045,36 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4092,19 +4097,19 @@
         <v>37</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>37</v>
@@ -4153,7 +4158,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -4165,24 +4170,24 @@
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4202,20 +4207,20 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>37</v>
@@ -4264,22 +4269,22 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>37</v>
@@ -4290,10 +4295,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4313,22 +4318,22 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>37</v>
@@ -4353,13 +4358,13 @@
         <v>37</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>37</v>
@@ -4377,25 +4382,25 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>37</v>
@@ -4403,10 +4408,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4426,16 +4431,16 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4462,13 +4467,13 @@
         <v>37</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>37</v>
@@ -4486,7 +4491,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -4498,13 +4503,13 @@
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>37</v>
@@ -4512,10 +4517,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4529,7 +4534,7 @@
         <v>38</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>37</v>
@@ -4538,13 +4543,13 @@
         <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4595,7 +4600,7 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -4607,24 +4612,24 @@
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4638,7 +4643,7 @@
         <v>38</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>37</v>
@@ -4647,19 +4652,19 @@
         <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>37</v>
@@ -4708,22 +4713,22 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>37</v>
@@ -4734,10 +4739,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4748,7 +4753,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>37</v>
@@ -4760,13 +4765,13 @@
         <v>37</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4817,13 +4822,13 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>37</v>
@@ -4832,7 +4837,7 @@
         <v>37</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>37</v>
@@ -4843,14 +4848,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4869,16 +4874,16 @@
         <v>37</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4916,19 +4921,19 @@
         <v>37</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -4940,10 +4945,10 @@
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>37</v>
@@ -4954,10 +4959,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4968,31 +4973,31 @@
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>37</v>
@@ -5005,7 +5010,7 @@
         <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>37</v>
@@ -5017,13 +5022,13 @@
         <v>37</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>37</v>
@@ -5041,22 +5046,22 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>37</v>
@@ -5067,10 +5072,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5081,7 +5086,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>37</v>
@@ -5090,19 +5095,19 @@
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5116,7 +5121,7 @@
         <v>37</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>37</v>
@@ -5128,13 +5133,13 @@
         <v>37</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>37</v>
@@ -5152,22 +5157,22 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>37</v>
@@ -5178,10 +5183,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5192,7 +5197,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>37</v>
@@ -5201,22 +5206,22 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>37</v>
@@ -5229,7 +5234,7 @@
         <v>37</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>37</v>
@@ -5265,22 +5270,22 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>37</v>
@@ -5291,10 +5296,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5308,22 +5313,22 @@
         <v>39</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5338,7 +5343,7 @@
         <v>37</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>37</v>
@@ -5374,7 +5379,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -5386,10 +5391,10 @@
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>37</v>
@@ -5400,39 +5405,39 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5447,7 +5452,7 @@
         <v>37</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>37</v>
@@ -5483,22 +5488,22 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>37</v>
@@ -5509,21 +5514,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>37</v>
@@ -5532,19 +5537,19 @@
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5558,7 +5563,7 @@
         <v>37</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>37</v>
@@ -5594,22 +5599,22 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>37</v>
@@ -5620,39 +5625,39 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5679,13 +5684,13 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
@@ -5703,22 +5708,22 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>37</v>
@@ -5729,39 +5734,39 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5776,7 +5781,7 @@
         <v>37</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>37</v>
@@ -5812,22 +5817,22 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>37</v>
@@ -5838,10 +5843,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5852,7 +5857,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>37</v>
@@ -5861,19 +5866,19 @@
         <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5923,22 +5928,22 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>37</v>
@@ -5949,10 +5954,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5963,7 +5968,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>37</v>
@@ -5972,20 +5977,20 @@
         <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>37</v>
@@ -5998,7 +6003,7 @@
         <v>37</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>37</v>
@@ -6034,22 +6039,22 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>37</v>
@@ -6060,10 +6065,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6083,20 +6088,20 @@
         <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>37</v>
@@ -6121,13 +6126,13 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>37</v>
@@ -6145,25 +6150,25 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>37</v>
@@ -6171,10 +6176,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6197,17 +6202,17 @@
         <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>37</v>
@@ -6256,22 +6261,22 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>37</v>
@@ -6282,10 +6287,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6296,7 +6301,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>37</v>
@@ -6308,13 +6313,13 @@
         <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6365,13 +6370,13 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>37</v>
@@ -6380,7 +6385,7 @@
         <v>37</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>37</v>
@@ -6391,14 +6396,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6417,16 +6422,16 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6476,7 +6481,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -6488,10 +6493,10 @@
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>37</v>
@@ -6502,14 +6507,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6522,25 +6527,25 @@
         <v>37</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>37</v>
@@ -6589,7 +6594,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -6601,10 +6606,10 @@
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>37</v>
@@ -6615,10 +6620,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6626,10 +6631,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
@@ -6641,13 +6646,13 @@
         <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6698,22 +6703,22 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>37</v>
@@ -6724,10 +6729,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6735,10 +6740,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>37</v>
@@ -6750,13 +6755,13 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6807,22 +6812,22 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>37</v>
@@ -6833,10 +6838,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6847,7 +6852,7 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -6859,13 +6864,13 @@
         <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6916,22 +6921,22 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>37</v>
@@ -6942,10 +6947,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6959,28 +6964,28 @@
         <v>38</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>37</v>
@@ -7029,22 +7034,22 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>37</v>
@@ -7055,10 +7060,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7081,17 +7086,17 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -7140,22 +7145,22 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>37</v>
@@ -7166,10 +7171,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7192,16 +7197,16 @@
         <v>37</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7251,7 +7256,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -7263,10 +7268,10 @@
         <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>37</v>
@@ -7277,10 +7282,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7291,7 +7296,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>37</v>
@@ -7303,13 +7308,13 @@
         <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7360,13 +7365,13 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>37</v>
@@ -7375,7 +7380,7 @@
         <v>37</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>37</v>
@@ -7386,14 +7391,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7412,16 +7417,16 @@
         <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7471,7 +7476,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -7483,10 +7488,10 @@
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>37</v>
@@ -7497,14 +7502,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7517,25 +7522,25 @@
         <v>37</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>37</v>
@@ -7584,7 +7589,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -7596,10 +7601,10 @@
         <v>37</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>37</v>
@@ -7610,10 +7615,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7636,13 +7641,13 @@
         <v>37</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7669,13 +7674,13 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
@@ -7693,7 +7698,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -7705,10 +7710,10 @@
         <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>37</v>
@@ -7719,10 +7724,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7733,7 +7738,7 @@
         <v>38</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>37</v>
@@ -7745,13 +7750,13 @@
         <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7802,22 +7807,22 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>37</v>
@@ -7828,10 +7833,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7842,7 +7847,7 @@
         <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>37</v>
@@ -7854,13 +7859,13 @@
         <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7911,22 +7916,22 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>37</v>
@@ -7937,10 +7942,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7951,7 +7956,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
@@ -7963,13 +7968,13 @@
         <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8020,22 +8025,22 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>37</v>
@@ -8046,10 +8051,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8072,13 +8077,13 @@
         <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8129,22 +8134,22 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>37</v>
@@ -8155,10 +8160,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8181,17 +8186,17 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>37</v>
@@ -8240,7 +8245,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -8252,10 +8257,10 @@
         <v>37</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>37</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
   - system = urn:oid:2.16.840.1.113883.4.349
 - `name` is the name as known
 - always a contained resource, so not exposed RESTfully
-NOT USING Mapping to [VIA HospitalLocationTO](StructureDefinition-VA.MHV.PHR.location-mappings.html#mappings-for-via-to-mhv-phr-hospitallocationto).</t>
+NOT USING Mapping to [VIA HospitalLocationTO](StructureDefinition-VA.MHV.PHR.location-mappings.html#mappings-for-via-to-mhv-fhir-phr-hospitallocationto).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="435">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6</t>
+    <t>0.2.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:16:33-05:00</t>
+    <t>2023-11-15T14:14:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,123 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
   </si>
   <si>
     <t/>
@@ -1581,7 +1698,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM60"/>
+  <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1592,12 +1709,13 @@
   <cols>
     <col min="1" max="1" width="42.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.3984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="5.2265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="72.82421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1605,589 +1723,597 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="66.8203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="12.12890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="16.20703125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="30.43359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="N1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AL1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>45</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>64</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2195,6082 +2321,6193 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O10" t="s" s="2">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AC10" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD10" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>37</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>59</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>37</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>37</v>
+        <v>236</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>210</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>37</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="P26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>37</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>118</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>122</v>
+        <v>280</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>37</v>
+        <v>327</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>37</v>
+        <v>335</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>37</v>
+        <v>342</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>37</v>
+        <v>355</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>37</v>
+        <v>363</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>37</v>
+        <v>364</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>118</v>
+        <v>367</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>119</v>
+        <v>368</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>120</v>
+        <v>369</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>121</v>
+        <v>366</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>122</v>
+        <v>371</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>336</v>
+        <v>131</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
+        <v>164</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>339</v>
+        <v>167</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>37</v>
+        <v>375</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>341</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>344</v>
+        <v>129</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>328</v>
+        <v>398</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>118</v>
+        <v>367</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>119</v>
+        <v>404</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>121</v>
+        <v>403</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>122</v>
+        <v>407</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>336</v>
+        <v>131</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>338</v>
+        <v>164</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>339</v>
+        <v>167</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>37</v>
+        <v>375</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>368</v>
+        <v>129</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>378</v>
+        <v>106</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>37</v>
+        <v>414</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>37</v>
+        <v>415</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>118</v>
+        <v>421</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>122</v>
+        <v>407</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>392</v>
+        <v>157</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>395</v>
-      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM60">
+  <autoFilter ref="A1:AM61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8280,7 +8517,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI59">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -243,13 +243,13 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: VIA to mhv-fhir-phr</t>
   </si>
   <si>
     <t/>
@@ -275,10 +275,10 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
+    <t>HospitalLocationTO</t>
+  </si>
+  <si>
     <t>.Role[classCode=SDLC]</t>
-  </si>
-  <si>
-    <t>HospitalLocationTO</t>
   </si>
   <si>
     <t>Location.id</t>
@@ -491,13 +491,13 @@
     <t>open</t>
   </si>
   <si>
+    <t>HospitalLocationTO.ids</t>
+  </si>
+  <si>
     <t>.id</t>
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>HospitalLocationTO.ids</t>
   </si>
   <si>
     <t>Location.identifier:TOid</t>
@@ -734,13 +734,13 @@
     <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
   </si>
   <si>
+    <t>HospitalLocationTO.status</t>
+  </si>
+  <si>
     <t>.statusCode</t>
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>HospitalLocationTO.status</t>
   </si>
   <si>
     <t>Location.operationalStatus</t>
@@ -774,10 +774,10 @@
     <t>If the name of a location changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
   </si>
   <si>
+    <t>HospitalLocationTO.name</t>
+  </si>
+  <si>
     <t>.name</t>
-  </si>
-  <si>
-    <t>HospitalLocationTO.name</t>
   </si>
   <si>
     <t>Location.alias</t>
@@ -866,10 +866,10 @@
     <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
   </si>
   <si>
+    <t>HospitalLocationTO.phone</t>
+  </si>
+  <si>
     <t>.telecom</t>
-  </si>
-  <si>
-    <t>HospitalLocationTO.phone</t>
   </si>
   <si>
     <t>Location.address</t>
@@ -1742,9 +1742,9 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="30.43359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.43359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1971,10 +1971,10 @@
         <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -2521,10 +2521,10 @@
         <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>76</v>
@@ -2632,10 +2632,10 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2743,10 +2743,10 @@
         <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2856,10 +2856,10 @@
         <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -3078,13 +3078,13 @@
         <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>151</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -3187,10 +3187,10 @@
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -3298,10 +3298,10 @@
         <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
@@ -3411,10 +3411,10 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
@@ -3524,10 +3524,10 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3637,10 +3637,10 @@
         <v>199</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3748,10 +3748,10 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3857,10 +3857,10 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3968,10 +3968,10 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -4186,13 +4186,13 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" hidden="true">
@@ -4300,10 +4300,10 @@
         <v>242</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" hidden="true">
@@ -4410,13 +4410,13 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -4521,10 +4521,10 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4634,13 +4634,13 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="27" hidden="true">
@@ -4743,13 +4743,13 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -4855,10 +4855,10 @@
         <v>272</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
@@ -4965,10 +4965,10 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5074,10 +5074,10 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -5185,10 +5185,10 @@
         <v>137</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5298,10 +5298,10 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5409,10 +5409,10 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5522,10 +5522,10 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5631,10 +5631,10 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5740,10 +5740,10 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -5851,10 +5851,10 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5960,10 +5960,10 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -6069,10 +6069,10 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6180,10 +6180,10 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6291,10 +6291,10 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6402,13 +6402,13 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -6513,10 +6513,10 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6622,10 +6622,10 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6733,10 +6733,10 @@
         <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6846,10 +6846,10 @@
         <v>137</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6955,10 +6955,10 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7064,10 +7064,10 @@
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7173,10 +7173,10 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7286,10 +7286,10 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7397,10 +7397,10 @@
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7508,10 +7508,10 @@
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7617,10 +7617,10 @@
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7728,10 +7728,10 @@
         <v>137</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -7841,10 +7841,10 @@
         <v>137</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -7950,10 +7950,10 @@
         <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8059,10 +8059,10 @@
         <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8168,10 +8168,10 @@
         <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8277,10 +8277,10 @@
         <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8386,10 +8386,10 @@
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8497,10 +8497,10 @@
         <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="436">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.5</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T15:35:14-05:00</t>
+    <t>2024-05-18T11:51:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>VA Digital Services (http://va.gov)</t>
+  </si>
+  <si>
+    <t>John Moehrke (himself) (John.Moehrke@va.gov)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1612,83 +1615,83 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1749,6761 +1752,6761 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
